--- a/Their.xlsx
+++ b/Their.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljurkowski001\PycharmProjects\VWcomparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F0DD6F-176F-4F00-A688-F7B5DE3676AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF54782-CD7D-468A-9F9E-3B5E85F28408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{AEF6C29E-FC44-4CCF-8A45-67D32758BEC9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{AEF6C29E-FC44-4CCF-8A45-67D32758BEC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
   <si>
     <t>INSTR_1212</t>
   </si>
@@ -75,6 +75,207 @@
   </si>
   <si>
     <t>INSTR_8892</t>
+  </si>
+  <si>
+    <t>/BIC/HKSDI2</t>
+  </si>
+  <si>
+    <t>/BIC/70836</t>
+  </si>
+  <si>
+    <t>/BIC/SHUDIUS8</t>
+  </si>
+  <si>
+    <t>/BIC/HYUJ80</t>
+  </si>
+  <si>
+    <t>/BIC/00908</t>
+  </si>
+  <si>
+    <t>/BIC/ASDF</t>
+  </si>
+  <si>
+    <t>/BIC/POIUY</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>INSTR_9003_9876</t>
+  </si>
+  <si>
+    <t>INSTR_7664_0987</t>
+  </si>
+  <si>
+    <t>INSTR_1212_0909</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>INSTR_1342142</t>
+  </si>
+  <si>
+    <t>INSTR_45672</t>
+  </si>
+  <si>
+    <t>INSTR_9769</t>
+  </si>
+  <si>
+    <t>INSTR_3323</t>
+  </si>
+  <si>
+    <t>INSTR_7672</t>
+  </si>
+  <si>
+    <t>INSTR_5671112</t>
+  </si>
+  <si>
+    <t>INSTR_7696</t>
+  </si>
+  <si>
+    <t>INSTR_80902</t>
+  </si>
+  <si>
+    <t>INSTR_0987</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1111111111111</t>
+  </si>
+  <si>
+    <t>98765467</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>9877</t>
+  </si>
+  <si>
+    <t>3131</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>INSTR_7672_0987</t>
+  </si>
+  <si>
+    <t>INSTR_5671112_696</t>
+  </si>
+  <si>
+    <t>INSTR_7696_696</t>
+  </si>
+  <si>
+    <t>INSTR_80902_5445</t>
+  </si>
+  <si>
+    <t>INSTR_0987_5333</t>
+  </si>
+  <si>
+    <t>INSTR_1342142_12121</t>
+  </si>
+  <si>
+    <t>INSTR_45672_0000</t>
+  </si>
+  <si>
+    <t>INSTR_9769_1111</t>
+  </si>
+  <si>
+    <t>INSTR_3323-980970</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>33342</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>23233</t>
+  </si>
+  <si>
+    <t>8787</t>
+  </si>
+  <si>
+    <t>331</t>
   </si>
 </sst>
 </file>
@@ -428,18 +629,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C553603-BB8B-450E-9B53-1DCC84130967}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -449,52 +656,542 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>332</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2444</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1">
+        <v>332</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="1">
+        <v>111</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1">
+        <v>112232</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>